--- a/data/Volunteer_Responses.xlsx
+++ b/data/Volunteer_Responses.xlsx
@@ -1,196 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3585458a03cad8dc/Documents/BMHC/Dashboard/Impact Reports/Volunteer/Volunteer_Feb_2025/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_946C8DF4572B236D4A3523F53D8EE7A148FA3CFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F0C42B-5A43-4086-9418-655688AEE1E7}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Activity status:</t>
+    <t>Date of Activity</t>
+  </si>
+  <si>
+    <t>Person submitting this form:</t>
+  </si>
+  <si>
+    <t>Role:</t>
+  </si>
+  <si>
+    <t>Total hours contributed this month:</t>
+  </si>
+  <si>
+    <t>Entity affiliated with (school, organization):</t>
   </si>
   <si>
     <t>Project Name:</t>
   </si>
   <si>
-    <t>Role:</t>
-  </si>
-  <si>
-    <t>Describe the software used:</t>
-  </si>
-  <si>
-    <t>What is the annual subscription cost for this software (if known):</t>
-  </si>
-  <si>
-    <t>Are there any associated licensing fees?</t>
-  </si>
-  <si>
-    <t>If yes, specify the cost and details:</t>
-  </si>
-  <si>
-    <t>Estimated savings from using this software (e.g. developer costs avoided):</t>
-  </si>
-  <si>
-    <t>What is the name of the project related to this contribution?</t>
-  </si>
-  <si>
     <t>Briefly Describe the contributions:</t>
   </si>
   <si>
-    <t>Estimated direct costs for this project (if applicable):</t>
-  </si>
-  <si>
-    <t>Estimated labor hours contributed (if applicable):</t>
-  </si>
-  <si>
-    <t>Describe the work performed by students or volunteers:</t>
-  </si>
-  <si>
-    <t>Number of students/volunteers involved:</t>
-  </si>
-  <si>
-    <t>Total hours contributed this month:</t>
-  </si>
-  <si>
-    <t>Entity affiliated with (school, organization):</t>
-  </si>
-  <si>
-    <t>Estimated dollar value of the work (e.g., hourly rate × hours worked):</t>
-  </si>
-  <si>
-    <t>Any additional details or clarifications regarding the contribution?</t>
-  </si>
-  <si>
-    <t>Activity duration (minutes):</t>
-  </si>
-  <si>
-    <t>Purpose of the activity (please only list one):</t>
-  </si>
-  <si>
-    <t>Brief description of activity:</t>
-  </si>
-  <si>
     <t>Victor Moreno</t>
   </si>
   <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Walden University</t>
+  </si>
+  <si>
     <t xml:space="preserve">Americorp-BMHC </t>
   </si>
   <si>
-    <t>Intern</t>
-  </si>
-  <si>
     <t>Policy research, industry and business analysis</t>
   </si>
   <si>
-    <t>Walden University</t>
-  </si>
-  <si>
     <t xml:space="preserve">Philip Awe </t>
   </si>
   <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>BMHC</t>
+  </si>
+  <si>
     <t>AmeriCorps Job Descriptions</t>
   </si>
   <si>
-    <t>Volunteer</t>
-  </si>
-  <si>
     <t>I participated in a planning meeting, and helped to develop JDs for 10 AmeriCorps members. I am putting finishing touches to this assignment.</t>
   </si>
   <si>
-    <t>BMHC</t>
-  </si>
-  <si>
     <t>Rishit Yokananth</t>
   </si>
   <si>
+    <t>University of Texas at Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">BMHC Business Plan + Navigation + Americorps </t>
   </si>
   <si>
     <t xml:space="preserve">BMHC Business Plan: working on business plan for BMHC. Navigation: Working with Dominique inside the clinic to get patient feedback + referrals to partners. Americorps: helping with grant applications for Americorps. </t>
   </si>
   <si>
-    <t>University of Texas at Austin</t>
-  </si>
-  <si>
     <t>Radhika Nair</t>
   </si>
   <si>
+    <t>Approximately 12 hours</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>BHMC (a) Americorps Grant application; (b) Update demographic numbers for certain populations</t>
   </si>
   <si>
     <t>Review the various reports shared by Dr Wallace and search for updates; write up my findings for specific populations (low income, men of color among unhoused, veterans, seniors etc)</t>
   </si>
   <si>
-    <t>Approximately 12 hours</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Qianhui Xu</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Business Plan </t>
   </si>
   <si>
     <t>Develop industry analysis; follow up with the progress with team member; final draft-development and review</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Mengnan Xu</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>KPI Data Analytics</t>
   </si>
   <si>
     <t>I took 1/5 of progress the Business Plan of BMHC Project, and built a data processing automation tool for the KPI data. Analyzed 2 out of 3 employees’s working hours and visualized the results.</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>Date of Activity</t>
-  </si>
-  <si>
-    <t>Person Submitting Form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -201,17 +143,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="11">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="13">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -225,7 +161,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -240,7 +175,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -255,7 +189,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -270,7 +203,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -285,7 +217,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -300,7 +231,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -315,7 +245,6 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -330,7 +259,20 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -345,7 +287,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -360,135 +301,167 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
           <bgColor rgb="FFF8F9FA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:X7">
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date of Activity"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Activity status:"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Person Submitting Form"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Project Name:"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Role:"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Describe the software used:"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="What is the annual subscription cost for this software (if known):"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Are there any associated licensing fees?"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="If yes, specify the cost and details:"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Estimated savings from using this software (e.g. developer costs avoided):"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="What is the name of the project related to this contribution?"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Briefly Describe the contributions:"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Estimated direct costs for this project (if applicable):"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Estimated labor hours contributed (if applicable):"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Describe the work performed by students or volunteers:"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Number of students/volunteers involved:"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Total hours contributed this month:"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Entity affiliated with (school, organization):"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Estimated dollar value of the work (e.g., hourly rate × hours worked):"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Any additional details or clarifications regarding the contribution?"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Activity duration (minutes):"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Purpose of the activity (please only list one):"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Brief description of activity:"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <tableColumns count="8">
+    <tableColumn name="Timestamp" id="1"/>
+    <tableColumn name="Date of Activity" id="2"/>
+    <tableColumn name="Person submitting this form:" id="3"/>
+    <tableColumn name="Role:" id="4"/>
+    <tableColumn name="Total hours contributed this month:" id="5"/>
+    <tableColumn name="Entity affiliated with (school, organization):" id="6"/>
+    <tableColumn name="Project Name:" id="7"/>
+    <tableColumn name="Briefly Describe the contributions:" id="8"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -678,278 +651,1111 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="30" width="18.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="14" width="18.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
+        <v>45715.881895694445</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45715.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="E2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="9">
+        <v>45716.50107534722</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45716.0</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="E3" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="13">
+        <v>45716.601999074075</v>
+      </c>
+      <c r="B4" s="14">
+        <v>45716.0</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45715.881895694445</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45715</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="9">
+        <v>45716.766186354165</v>
+      </c>
+      <c r="B5" s="10">
+        <v>45716.0</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6">
-        <v>100</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="H5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="7"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>45716.501075347223</v>
-      </c>
-      <c r="B3" s="9">
-        <v>45716</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="13">
+        <v>45717.61064251157</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45717.0</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="H6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="10">
-        <v>10</v>
-      </c>
-      <c r="S3" s="10" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="17">
+        <v>45719.54584471065</v>
+      </c>
+      <c r="B7" s="18">
+        <v>45717.0</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>45716.601999074075</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="19">
+        <v>103.0</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="H7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="6">
-        <v>40</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>45716.766186354165</v>
-      </c>
-      <c r="B5" s="9">
-        <v>45716</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>45717.610642511572</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45717</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="6">
-        <v>100</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>45719.54584471065</v>
-      </c>
-      <c r="B7" s="12">
-        <v>45717</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="13">
-        <v>103</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>